--- a/待发布/odoo内置模块数据库设计/odoo-tables.xlsx
+++ b/待发布/odoo内置模块数据库设计/odoo-tables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28720" yWindow="580" windowWidth="26220" windowHeight="20120" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2580" yWindow="460" windowWidth="26220" windowHeight="16540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="sale" sheetId="1" r:id="rId1"/>
@@ -1394,6 +1394,31 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1415,34 +1440,11 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1738,8 +1740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:G5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1765,29 +1767,29 @@
   <sheetData>
     <row r="1" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14"/>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
       <c r="E1" s="14"/>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="32"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
       <c r="I1" s="14"/>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="K1" s="31"/>
-      <c r="L1" s="32"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="49"/>
       <c r="M1" s="14"/>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="32"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="49"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
@@ -2269,11 +2271,11 @@
       <c r="J18" s="15"/>
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
-      <c r="N18" s="33" t="s">
+      <c r="N18" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="O18" s="34"/>
-      <c r="P18" s="35"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="52"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
@@ -2290,11 +2292,11 @@
         <v>34</v>
       </c>
       <c r="H19" s="9"/>
-      <c r="J19" s="30" t="s">
+      <c r="J19" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="K19" s="31"/>
-      <c r="L19" s="32"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="49"/>
       <c r="N19" s="18" t="s">
         <v>0</v>
       </c>
@@ -2486,11 +2488,11 @@
         <v>3</v>
       </c>
       <c r="H26" s="9"/>
-      <c r="J26" s="30" t="s">
+      <c r="J26" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="K26" s="31"/>
-      <c r="L26" s="32"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="49"/>
       <c r="N26" s="4" t="s">
         <v>62</v>
       </c>
@@ -2770,11 +2772,11 @@
         <v>8</v>
       </c>
       <c r="L36" s="9"/>
-      <c r="N36" s="33" t="s">
+      <c r="N36" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="O36" s="34"/>
-      <c r="P36" s="36"/>
+      <c r="O36" s="51"/>
+      <c r="P36" s="53"/>
     </row>
     <row r="37" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
@@ -2879,11 +2881,11 @@
       <c r="P40" s="20"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="F41" s="30" t="s">
+      <c r="F41" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="G41" s="31"/>
-      <c r="H41" s="32"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="49"/>
       <c r="J41" s="4" t="s">
         <v>47</v>
       </c>
@@ -2966,11 +2968,11 @@
       <c r="P46" s="20"/>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="F47" s="30" t="s">
+      <c r="F47" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="G47" s="31"/>
-      <c r="H47" s="32"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="49"/>
       <c r="N47" s="4" t="s">
         <v>22</v>
       </c>
@@ -3022,16 +3024,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J26:L26"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="F47:H47"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="F41:H41"/>
     <mergeCell ref="J1:L1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="J26:L26"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3042,8 +3044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P56" workbookViewId="0">
-      <selection activeCell="R88" sqref="R88"/>
+    <sheetView topLeftCell="N46" workbookViewId="0">
+      <selection activeCell="P65" sqref="P65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3056,84 +3058,84 @@
     <col min="8" max="8" width="20.5" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
     <col min="11" max="11" width="30" customWidth="1"/>
-    <col min="12" max="12" width="20.33203125" style="52" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" style="44" customWidth="1"/>
     <col min="14" max="14" width="25.83203125" customWidth="1"/>
     <col min="15" max="15" width="28.83203125" customWidth="1"/>
     <col min="16" max="16" width="27.1640625" customWidth="1"/>
-    <col min="18" max="18" width="38" customWidth="1"/>
-    <col min="19" max="19" width="28.83203125" customWidth="1"/>
+    <col min="18" max="18" width="38" style="1" customWidth="1"/>
+    <col min="19" max="19" width="28.83203125" style="1" customWidth="1"/>
     <col min="20" max="20" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32"/>
-      <c r="F1" s="30" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="F1" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="32"/>
-      <c r="J1" s="30" t="s">
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
+      <c r="J1" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="K1" s="31"/>
-      <c r="L1" s="32"/>
-      <c r="N1" s="30" t="s">
+      <c r="K1" s="48"/>
+      <c r="L1" s="49"/>
+      <c r="N1" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="32"/>
-      <c r="R1" s="30" t="s">
+      <c r="O1" s="48"/>
+      <c r="P1" s="49"/>
+      <c r="R1" s="47" t="s">
         <v>192</v>
       </c>
-      <c r="S1" s="31"/>
-      <c r="T1" s="32"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="49"/>
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="31" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="9"/>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="31" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="9"/>
-      <c r="J2" s="37" t="s">
+      <c r="J2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="49"/>
-      <c r="N2" s="37" t="s">
+      <c r="K2" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="41"/>
+      <c r="N2" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="O2" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="P2" s="49"/>
-      <c r="R2" s="37" t="s">
+      <c r="O2" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="41"/>
+      <c r="R2" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="S2" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="T2" s="49"/>
+      <c r="S2" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" s="41"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="31" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="9"/>
@@ -3144,30 +3146,30 @@
         <v>8</v>
       </c>
       <c r="H3" s="9"/>
-      <c r="J3" s="37" t="s">
+      <c r="J3" s="30" t="s">
         <v>154</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="49"/>
-      <c r="N3" s="37" t="s">
+      <c r="L3" s="41"/>
+      <c r="N3" s="30" t="s">
         <v>181</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="49"/>
-      <c r="R3" s="37" t="s">
+      <c r="P3" s="41"/>
+      <c r="R3" s="30" t="s">
         <v>120</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="49"/>
+      <c r="T3" s="41"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="30" t="s">
         <v>121</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -3187,14 +3189,14 @@
       <c r="K4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="49"/>
-      <c r="R4" s="53" t="s">
+      <c r="L4" s="41"/>
+      <c r="R4" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="S4" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="T4" s="40"/>
+      <c r="S4" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="T4" s="9"/>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -3217,20 +3219,20 @@
       <c r="K5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="49"/>
+      <c r="L5" s="41"/>
       <c r="R5" s="4" t="s">
         <v>53</v>
       </c>
       <c r="S5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="T5" s="40"/>
+      <c r="T5" s="9"/>
     </row>
     <row r="6" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="31" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="9"/>
@@ -3247,17 +3249,17 @@
       <c r="K6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="49"/>
-      <c r="R6" s="53" t="s">
+      <c r="L6" s="41"/>
+      <c r="R6" s="55" t="s">
         <v>193</v>
       </c>
-      <c r="S6" s="39" t="s">
+      <c r="S6" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="T6" s="40"/>
+      <c r="T6" s="9"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="30" t="s">
         <v>123</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -3277,22 +3279,22 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="49"/>
-      <c r="N7" s="30" t="s">
+      <c r="L7" s="41"/>
+      <c r="N7" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="O7" s="31"/>
-      <c r="P7" s="32"/>
-      <c r="R7" s="53" t="s">
+      <c r="O7" s="48"/>
+      <c r="P7" s="49"/>
+      <c r="R7" s="55" t="s">
         <v>195</v>
       </c>
-      <c r="S7" s="39" t="s">
+      <c r="S7" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="T7" s="40"/>
+      <c r="T7" s="9"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="30" t="s">
         <v>124</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -3312,24 +3314,24 @@
       <c r="K8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="49"/>
-      <c r="N8" s="37" t="s">
+      <c r="L8" s="41"/>
+      <c r="N8" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="O8" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="P8" s="49"/>
-      <c r="R8" s="53" t="s">
+      <c r="O8" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="41"/>
+      <c r="R8" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="S8" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="T8" s="40"/>
+      <c r="S8" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="T8" s="9"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="30" t="s">
         <v>125</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -3349,31 +3351,31 @@
       <c r="K9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="49"/>
-      <c r="N9" s="37" t="s">
+      <c r="L9" s="41"/>
+      <c r="N9" s="30" t="s">
         <v>185</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P9" s="49"/>
-      <c r="R9" s="53" t="s">
+      <c r="P9" s="41"/>
+      <c r="R9" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="S9" s="39" t="s">
+      <c r="S9" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="T9" s="40"/>
+      <c r="T9" s="9"/>
     </row>
     <row r="10" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="30" t="s">
         <v>126</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D10" s="9"/>
-      <c r="F10" s="44" t="s">
+      <c r="F10" s="54" t="s">
         <v>79</v>
       </c>
       <c r="G10" s="7" t="s">
@@ -3388,31 +3390,31 @@
       <c r="K10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="49"/>
-      <c r="N10" s="37" t="s">
+      <c r="L10" s="41"/>
+      <c r="N10" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="O10" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="P10" s="40"/>
+      <c r="O10" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P10" s="32"/>
       <c r="R10" s="4" t="s">
         <v>163</v>
       </c>
       <c r="S10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="T10" s="40"/>
+      <c r="T10" s="9"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="30" t="s">
         <v>127</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="9"/>
-      <c r="F11" s="42"/>
+      <c r="F11" s="34"/>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="J11" s="4" t="s">
@@ -3421,21 +3423,21 @@
       <c r="K11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="50"/>
-      <c r="N11" s="37" t="s">
+      <c r="L11" s="42"/>
+      <c r="N11" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="O11" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="P11" s="40"/>
+      <c r="O11" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P11" s="32"/>
       <c r="R11" s="4" t="s">
         <v>199</v>
       </c>
       <c r="S11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="T11" s="40"/>
+      <c r="T11" s="9"/>
     </row>
     <row r="12" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
@@ -3454,21 +3456,21 @@
       <c r="K12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="51"/>
+      <c r="L12" s="43"/>
       <c r="N12" s="4" t="s">
         <v>53</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P12" s="40"/>
+      <c r="P12" s="32"/>
       <c r="R12" s="4" t="s">
         <v>125</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="T12" s="40"/>
+      <c r="T12" s="9"/>
     </row>
     <row r="13" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
@@ -3487,14 +3489,14 @@
       <c r="O13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="P13" s="40"/>
+      <c r="P13" s="32"/>
       <c r="R13" s="4" t="s">
         <v>126</v>
       </c>
       <c r="S13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="T13" s="40"/>
+      <c r="T13" s="9"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
@@ -3504,25 +3506,25 @@
         <v>3</v>
       </c>
       <c r="D14" s="9"/>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="G14" s="31"/>
-      <c r="H14" s="32"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="49"/>
       <c r="N14" s="4" t="s">
         <v>189</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="P14" s="40"/>
-      <c r="R14" s="53" t="s">
+      <c r="P14" s="32"/>
+      <c r="R14" s="55" t="s">
         <v>200</v>
       </c>
-      <c r="S14" s="39" t="s">
+      <c r="S14" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="T14" s="40"/>
+      <c r="T14" s="9"/>
     </row>
     <row r="15" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
@@ -3532,10 +3534,10 @@
         <v>16</v>
       </c>
       <c r="D15" s="13"/>
-      <c r="F15" s="37" t="s">
+      <c r="F15" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="G15" s="38" t="s">
+      <c r="G15" s="31" t="s">
         <v>3</v>
       </c>
       <c r="H15" s="9"/>
@@ -3545,143 +3547,143 @@
       <c r="O15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P15" s="40"/>
-      <c r="R15" s="53" t="s">
+      <c r="P15" s="32"/>
+      <c r="R15" s="55" t="s">
         <v>201</v>
       </c>
-      <c r="S15" s="39" t="s">
+      <c r="S15" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="T15" s="40"/>
+      <c r="T15" s="9"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="F16" s="37" t="s">
+      <c r="F16" s="30" t="s">
         <v>133</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="45"/>
-      <c r="J16" s="30" t="s">
+      <c r="H16" s="37"/>
+      <c r="J16" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="K16" s="31"/>
-      <c r="L16" s="32"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="49"/>
       <c r="N16" s="4" t="s">
         <v>74</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P16" s="40"/>
+      <c r="P16" s="32"/>
       <c r="R16" s="4" t="s">
         <v>202</v>
       </c>
       <c r="S16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="T16" s="40"/>
+      <c r="T16" s="9"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="F17" s="37" t="s">
+      <c r="F17" s="28" t="s">
         <v>134</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H17" s="45"/>
-      <c r="J17" s="37" t="s">
+      <c r="H17" s="37"/>
+      <c r="J17" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="K17" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="49"/>
+      <c r="K17" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="41"/>
       <c r="N17" s="4" t="s">
         <v>175</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P17" s="40"/>
+      <c r="P17" s="32"/>
       <c r="R17" s="10" t="s">
         <v>203</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="T17" s="40"/>
+      <c r="T17" s="9"/>
     </row>
     <row r="18" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F18" s="37" t="s">
+      <c r="F18" s="30" t="s">
         <v>135</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="45"/>
-      <c r="J18" s="37" t="s">
+      <c r="H18" s="37"/>
+      <c r="J18" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="K18" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="L18" s="49"/>
+      <c r="K18" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" s="41"/>
       <c r="N18" s="4" t="s">
         <v>176</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P18" s="40"/>
+      <c r="P18" s="32"/>
       <c r="R18" s="10" t="s">
         <v>41</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="T18" s="40"/>
+      <c r="T18" s="9"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="32"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="49"/>
       <c r="F19" s="4" t="s">
         <v>46</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H19" s="45"/>
+      <c r="H19" s="37"/>
       <c r="J19" s="4" t="s">
         <v>113</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="49"/>
+      <c r="L19" s="41"/>
       <c r="N19" s="4" t="s">
         <v>150</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P19" s="40"/>
-      <c r="R19" s="53" t="s">
+      <c r="P19" s="32"/>
+      <c r="R19" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="S19" s="39" t="s">
+      <c r="S19" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="T19" s="40"/>
+      <c r="T19" s="9"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="31" t="s">
         <v>3</v>
       </c>
       <c r="D20" s="9"/>
@@ -3691,31 +3693,31 @@
       <c r="G20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="45"/>
+      <c r="H20" s="37"/>
       <c r="J20" s="4" t="s">
         <v>74</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="49"/>
+      <c r="L20" s="41"/>
       <c r="N20" s="4" t="s">
         <v>122</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P20" s="40"/>
+      <c r="P20" s="32"/>
       <c r="R20" s="10" t="s">
         <v>204</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="T20" s="40"/>
+      <c r="T20" s="9"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="30" t="s">
         <v>146</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -3728,28 +3730,28 @@
       <c r="G21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="45"/>
+      <c r="H21" s="37"/>
       <c r="J21" s="4" t="s">
         <v>41</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="49"/>
+      <c r="L21" s="41"/>
       <c r="N21" s="4" t="s">
         <v>190</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P21" s="40"/>
-      <c r="R21" s="53" t="s">
+      <c r="P21" s="32"/>
+      <c r="R21" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="S21" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="T21" s="40"/>
+      <c r="S21" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="T21" s="9"/>
     </row>
     <row r="22" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="28" t="s">
@@ -3765,28 +3767,28 @@
       <c r="G22" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="47"/>
+      <c r="H22" s="39"/>
       <c r="J22" s="4" t="s">
         <v>53</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="49"/>
+      <c r="L22" s="41"/>
       <c r="N22" s="4" t="s">
         <v>46</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P22" s="40"/>
-      <c r="R22" s="53" t="s">
+      <c r="P22" s="32"/>
+      <c r="R22" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="S22" s="39" t="s">
+      <c r="S22" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="T22" s="40"/>
+      <c r="T22" s="9"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
@@ -3796,63 +3798,63 @@
         <v>8</v>
       </c>
       <c r="D23" s="9"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="J23" s="37" t="s">
+      <c r="F23" s="34"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="J23" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="K23" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="L23" s="49"/>
+      <c r="K23" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="L23" s="41"/>
       <c r="N23" s="4" t="s">
         <v>22</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P23" s="40"/>
-      <c r="R23" s="53" t="s">
+      <c r="P23" s="32"/>
+      <c r="R23" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="S23" s="39" t="s">
+      <c r="S23" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="T23" s="40"/>
+      <c r="T23" s="9"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="31" t="s">
         <v>3</v>
       </c>
       <c r="D24" s="9"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
       <c r="J24" s="4" t="s">
         <v>46</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="49"/>
+      <c r="L24" s="41"/>
       <c r="N24" s="4" t="s">
         <v>47</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P24" s="40"/>
+      <c r="P24" s="32"/>
       <c r="R24" s="4" t="s">
         <v>46</v>
       </c>
       <c r="S24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="T24" s="40"/>
+      <c r="T24" s="9"/>
     </row>
     <row r="25" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
@@ -3862,30 +3864,30 @@
         <v>3</v>
       </c>
       <c r="D25" s="9"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
       <c r="J25" s="4" t="s">
         <v>22</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L25" s="49"/>
+      <c r="L25" s="41"/>
       <c r="N25" s="5" t="s">
         <v>48</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="P25" s="41"/>
+      <c r="P25" s="33"/>
       <c r="R25" s="4" t="s">
         <v>22</v>
       </c>
       <c r="S25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="T25" s="40"/>
+      <c r="T25" s="9"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
@@ -3895,25 +3897,25 @@
         <v>16</v>
       </c>
       <c r="D26" s="9"/>
-      <c r="F26" s="30" t="s">
+      <c r="F26" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="G26" s="31"/>
-      <c r="H26" s="32"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="49"/>
       <c r="J26" s="4" t="s">
         <v>47</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="50"/>
+      <c r="L26" s="42"/>
       <c r="R26" s="4" t="s">
         <v>47</v>
       </c>
       <c r="S26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="T26" s="40"/>
+      <c r="T26" s="9"/>
     </row>
     <row r="27" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
@@ -3923,10 +3925,10 @@
         <v>3</v>
       </c>
       <c r="D27" s="9"/>
-      <c r="F27" s="37" t="s">
+      <c r="F27" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="G27" s="38" t="s">
+      <c r="G27" s="31" t="s">
         <v>3</v>
       </c>
       <c r="H27" s="9"/>
@@ -3936,14 +3938,14 @@
       <c r="K27" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L27" s="51"/>
+      <c r="L27" s="43"/>
       <c r="R27" s="4" t="s">
         <v>48</v>
       </c>
       <c r="S27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="T27" s="40"/>
+      <c r="T27" s="9"/>
     </row>
     <row r="28" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
@@ -3953,152 +3955,152 @@
         <v>16</v>
       </c>
       <c r="D28" s="13"/>
-      <c r="F28" s="44" t="s">
+      <c r="F28" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="G28" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="H28" s="47"/>
-      <c r="R28" s="53" t="s">
+      <c r="G28" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" s="39"/>
+      <c r="R28" s="55" t="s">
         <v>207</v>
       </c>
-      <c r="S28" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="T28" s="40"/>
+      <c r="S28" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="T28" s="9"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B29" s="42"/>
+      <c r="B29" s="34"/>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="42"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="34"/>
       <c r="G29" s="17"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="43"/>
-      <c r="N29" s="30" t="s">
+      <c r="H29" s="40"/>
+      <c r="I29" s="35"/>
+      <c r="N29" s="47" t="s">
         <v>191</v>
       </c>
-      <c r="O29" s="31"/>
-      <c r="P29" s="32"/>
-      <c r="R29" s="53" t="s">
+      <c r="O29" s="48"/>
+      <c r="P29" s="49"/>
+      <c r="R29" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="S29" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="T29" s="40"/>
+      <c r="S29" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="9"/>
     </row>
     <row r="30" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="15"/>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="42"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="34"/>
       <c r="G30" s="17"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="43"/>
-      <c r="N30" s="37" t="s">
+      <c r="H30" s="40"/>
+      <c r="I30" s="35"/>
+      <c r="N30" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="O30" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="P30" s="49"/>
-      <c r="R30" s="53" t="s">
+      <c r="O30" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="P30" s="41"/>
+      <c r="R30" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="S30" s="38" t="s">
+      <c r="S30" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="T30" s="40"/>
+      <c r="T30" s="9"/>
     </row>
     <row r="31" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="15"/>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="30" t="s">
+      <c r="E31" s="35"/>
+      <c r="F31" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="G31" s="31"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="30" t="s">
+      <c r="G31" s="48"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="K31" s="31"/>
-      <c r="L31" s="32"/>
-      <c r="N31" s="37" t="s">
+      <c r="K31" s="48"/>
+      <c r="L31" s="49"/>
+      <c r="N31" s="30" t="s">
         <v>181</v>
       </c>
       <c r="O31" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P31" s="49"/>
-      <c r="R31" s="53" t="s">
+      <c r="P31" s="41"/>
+      <c r="R31" s="55" t="s">
         <v>210</v>
       </c>
-      <c r="S31" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="T31" s="40"/>
+      <c r="S31" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="T31" s="9"/>
     </row>
     <row r="32" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="C32" s="31"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="37" t="s">
+      <c r="C32" s="48"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="G32" s="38" t="s">
+      <c r="G32" s="31" t="s">
         <v>3</v>
       </c>
       <c r="H32" s="9"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="37" t="s">
+      <c r="I32" s="35"/>
+      <c r="J32" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="K32" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="49"/>
-      <c r="R32" s="54" t="s">
+      <c r="K32" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="41"/>
+      <c r="R32" s="56" t="s">
         <v>211</v>
       </c>
-      <c r="S32" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="T32" s="41"/>
+      <c r="S32" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="T32" s="13"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="38" t="s">
+      <c r="C33" s="31" t="s">
         <v>3</v>
       </c>
       <c r="D33" s="9"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="37" t="s">
+      <c r="E33" s="35"/>
+      <c r="F33" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="G33" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="H33" s="45"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="37" t="s">
+      <c r="G33" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="37"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="K33" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="49"/>
+      <c r="K33" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="41"/>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B34" s="28" t="s">
@@ -4108,22 +4110,22 @@
         <v>8</v>
       </c>
       <c r="D34" s="9"/>
-      <c r="E34" s="43"/>
+      <c r="E34" s="35"/>
       <c r="F34" s="4" t="s">
         <v>53</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H34" s="40"/>
-      <c r="I34" s="43"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="35"/>
       <c r="J34" s="4" t="s">
         <v>150</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L34" s="49"/>
+      <c r="L34" s="41"/>
     </row>
     <row r="35" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
@@ -4133,84 +4135,84 @@
         <v>3</v>
       </c>
       <c r="D35" s="9"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="37" t="s">
+      <c r="E35" s="35"/>
+      <c r="F35" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="G35" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="40"/>
-      <c r="I35" s="43"/>
+      <c r="G35" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" s="32"/>
+      <c r="I35" s="35"/>
       <c r="J35" s="4" t="s">
         <v>163</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="49"/>
+      <c r="L35" s="41"/>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B36" s="37" t="s">
+      <c r="B36" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="C36" s="38" t="s">
+      <c r="C36" s="31" t="s">
         <v>3</v>
       </c>
       <c r="D36" s="9"/>
-      <c r="E36" s="43"/>
+      <c r="E36" s="35"/>
       <c r="F36" s="4" t="s">
         <v>46</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H36" s="40"/>
-      <c r="I36" s="43"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="35"/>
       <c r="J36" s="4" t="s">
         <v>164</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L36" s="49"/>
-      <c r="R36" s="30" t="s">
+      <c r="L36" s="41"/>
+      <c r="R36" s="47" t="s">
         <v>212</v>
       </c>
-      <c r="S36" s="31"/>
-      <c r="T36" s="32"/>
+      <c r="S36" s="48"/>
+      <c r="T36" s="49"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B37" s="37" t="s">
+      <c r="B37" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="C37" s="38" t="s">
+      <c r="C37" s="31" t="s">
         <v>57</v>
       </c>
       <c r="D37" s="9"/>
-      <c r="E37" s="43"/>
+      <c r="E37" s="35"/>
       <c r="F37" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H37" s="40"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="37" t="s">
+      <c r="H37" s="32"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="K37" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="L37" s="49"/>
-      <c r="R37" s="37" t="s">
+      <c r="K37" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="L37" s="41"/>
+      <c r="R37" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="S37" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="T37" s="49"/>
+      <c r="S37" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="T37" s="41"/>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
@@ -4220,61 +4222,61 @@
         <v>8</v>
       </c>
       <c r="D38" s="9"/>
-      <c r="E38" s="43"/>
+      <c r="E38" s="35"/>
       <c r="F38" s="4" t="s">
         <v>47</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H38" s="40"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="37" t="s">
+      <c r="H38" s="32"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="K38" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="L38" s="49"/>
-      <c r="R38" s="37" t="s">
+      <c r="K38" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="L38" s="41"/>
+      <c r="R38" s="30" t="s">
         <v>213</v>
       </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="T38" s="49"/>
+      <c r="T38" s="41"/>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B39" s="37" t="s">
+      <c r="B39" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="38" t="s">
+      <c r="C39" s="31" t="s">
         <v>3</v>
       </c>
       <c r="D39" s="9"/>
-      <c r="E39" s="43"/>
+      <c r="E39" s="35"/>
       <c r="F39" s="4" t="s">
         <v>48</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H39" s="40"/>
-      <c r="I39" s="43"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="35"/>
       <c r="J39" s="4" t="s">
         <v>167</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L39" s="49"/>
-      <c r="R39" s="37" t="s">
+      <c r="L39" s="41"/>
+      <c r="R39" s="30" t="s">
         <v>122</v>
       </c>
       <c r="S39" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="T39" s="40"/>
+      <c r="T39" s="32"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B40" s="4" t="s">
@@ -4284,27 +4286,27 @@
         <v>3</v>
       </c>
       <c r="D40" s="9"/>
-      <c r="F40" s="4" t="s">
+      <c r="F40" s="28" t="s">
         <v>140</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H40" s="40"/>
+      <c r="H40" s="32"/>
       <c r="J40" s="4" t="s">
         <v>168</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L40" s="49"/>
+      <c r="L40" s="41"/>
       <c r="R40" s="4" t="s">
         <v>46</v>
       </c>
       <c r="S40" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="T40" s="40"/>
+      <c r="T40" s="32"/>
     </row>
     <row r="41" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
@@ -4314,20 +4316,20 @@
         <v>16</v>
       </c>
       <c r="D41" s="9"/>
-      <c r="F41" s="44" t="s">
+      <c r="F41" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="G41" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="H41" s="41"/>
+      <c r="G41" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" s="33"/>
       <c r="J41" s="4" t="s">
         <v>169</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L41" s="50" t="s">
+      <c r="L41" s="42" t="s">
         <v>170</v>
       </c>
       <c r="R41" s="4" t="s">
@@ -4336,7 +4338,7 @@
       <c r="S41" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="T41" s="40"/>
+      <c r="T41" s="32"/>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B42" s="4" t="s">
@@ -4345,21 +4347,21 @@
       <c r="C42" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="40"/>
+      <c r="D42" s="32"/>
       <c r="J42" s="4" t="s">
         <v>171</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L42" s="50"/>
+      <c r="L42" s="42"/>
       <c r="R42" s="4" t="s">
         <v>47</v>
       </c>
       <c r="S42" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="T42" s="40"/>
+      <c r="T42" s="32"/>
     </row>
     <row r="43" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
@@ -4368,59 +4370,59 @@
       <c r="C43" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="41"/>
+      <c r="D43" s="33"/>
       <c r="J43" s="4" t="s">
         <v>172</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L43" s="50"/>
+      <c r="L43" s="42"/>
       <c r="R43" s="5" t="s">
         <v>48</v>
       </c>
       <c r="S43" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="T43" s="41"/>
+      <c r="T43" s="33"/>
     </row>
     <row r="44" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
       <c r="J44" s="4" t="s">
         <v>173</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L44" s="50"/>
+      <c r="L44" s="42"/>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
-      <c r="F45" s="30" t="s">
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="F45" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="G45" s="31"/>
-      <c r="H45" s="32"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="49"/>
       <c r="J45" s="4" t="s">
         <v>174</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L45" s="50"/>
+      <c r="L45" s="42"/>
     </row>
     <row r="46" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="F46" s="37" t="s">
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="F46" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="G46" s="38" t="s">
+      <c r="G46" s="31" t="s">
         <v>3</v>
       </c>
       <c r="H46" s="9"/>
@@ -4430,248 +4432,248 @@
       <c r="K46" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="50"/>
+      <c r="L46" s="42"/>
     </row>
     <row r="47" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F47" s="44" t="s">
+      <c r="F47" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="G47" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="47"/>
+      <c r="G47" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="39"/>
       <c r="J47" s="4" t="s">
         <v>74</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="50"/>
-      <c r="R47" s="30" t="s">
+      <c r="L47" s="42"/>
+      <c r="R47" s="47" t="s">
         <v>214</v>
       </c>
-      <c r="S47" s="31"/>
-      <c r="T47" s="32"/>
+      <c r="S47" s="48"/>
+      <c r="T47" s="49"/>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="F48" s="15"/>
       <c r="G48" s="17"/>
-      <c r="H48" s="43"/>
+      <c r="H48" s="35"/>
       <c r="J48" s="4" t="s">
         <v>113</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L48" s="50"/>
-      <c r="R48" s="37" t="s">
+      <c r="L48" s="42"/>
+      <c r="R48" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="S48" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="T48" s="49"/>
+      <c r="S48" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="T48" s="41"/>
     </row>
     <row r="49" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F49" s="42"/>
-      <c r="G49" s="48"/>
-      <c r="H49" s="43"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="35"/>
       <c r="J49" s="4" t="s">
         <v>175</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L49" s="50"/>
-      <c r="R49" s="53" t="s">
+      <c r="L49" s="42"/>
+      <c r="R49" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="S49" s="39" t="s">
+      <c r="S49" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="T49" s="49"/>
+      <c r="T49" s="41"/>
     </row>
     <row r="50" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F50" s="15"/>
       <c r="G50" s="17"/>
-      <c r="H50" s="43"/>
+      <c r="H50" s="35"/>
       <c r="J50" s="4" t="s">
         <v>176</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L50" s="50"/>
-      <c r="R50" s="37" t="s">
+      <c r="L50" s="42"/>
+      <c r="R50" s="30" t="s">
         <v>122</v>
       </c>
       <c r="S50" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="T50" s="40"/>
+      <c r="T50" s="32"/>
     </row>
     <row r="51" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F51" s="15"/>
       <c r="G51" s="17"/>
-      <c r="H51" s="43"/>
-      <c r="J51" s="37" t="s">
+      <c r="H51" s="35"/>
+      <c r="J51" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="K51" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="L51" s="50"/>
-      <c r="R51" s="37" t="s">
+      <c r="K51" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="L51" s="42"/>
+      <c r="R51" s="30" t="s">
         <v>139</v>
       </c>
       <c r="S51" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="T51" s="40"/>
+      <c r="T51" s="32"/>
     </row>
     <row r="52" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F52" s="15"/>
       <c r="G52" s="17"/>
-      <c r="H52" s="43"/>
+      <c r="H52" s="35"/>
       <c r="J52" s="4" t="s">
         <v>178</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L52" s="50"/>
+      <c r="L52" s="42"/>
       <c r="R52" s="4" t="s">
         <v>46</v>
       </c>
       <c r="S52" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="T52" s="40"/>
+      <c r="T52" s="32"/>
     </row>
     <row r="53" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F53" s="15"/>
       <c r="G53" s="17"/>
-      <c r="H53" s="43"/>
+      <c r="H53" s="35"/>
       <c r="J53" s="4" t="s">
         <v>179</v>
       </c>
       <c r="K53" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="L53" s="50"/>
+      <c r="L53" s="42"/>
       <c r="R53" s="4" t="s">
         <v>22</v>
       </c>
       <c r="S53" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="T53" s="40"/>
+      <c r="T53" s="32"/>
     </row>
     <row r="54" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F54" s="15"/>
       <c r="G54" s="17"/>
-      <c r="H54" s="43"/>
+      <c r="H54" s="35"/>
       <c r="J54" s="4" t="s">
         <v>46</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="50"/>
+      <c r="L54" s="42"/>
       <c r="R54" s="4" t="s">
         <v>47</v>
       </c>
       <c r="S54" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="T54" s="40"/>
+      <c r="T54" s="32"/>
     </row>
     <row r="55" spans="6:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F55" s="42"/>
-      <c r="G55" s="48"/>
-      <c r="H55" s="43"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="35"/>
       <c r="J55" s="4" t="s">
         <v>22</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L55" s="50"/>
+      <c r="L55" s="42"/>
       <c r="R55" s="5" t="s">
         <v>48</v>
       </c>
       <c r="S55" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="T55" s="41"/>
+      <c r="T55" s="33"/>
     </row>
     <row r="56" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F56" s="43"/>
-      <c r="G56" s="43"/>
-      <c r="H56" s="43"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
       <c r="J56" s="4" t="s">
         <v>47</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L56" s="50"/>
+      <c r="L56" s="42"/>
     </row>
     <row r="57" spans="6:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="43"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
       <c r="J57" s="5" t="s">
         <v>48</v>
       </c>
       <c r="K57" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L57" s="51"/>
+      <c r="L57" s="43"/>
     </row>
     <row r="58" spans="6:20" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="R59" s="30" t="s">
+      <c r="R59" s="47" t="s">
         <v>215</v>
       </c>
-      <c r="S59" s="31"/>
-      <c r="T59" s="32"/>
+      <c r="S59" s="48"/>
+      <c r="T59" s="49"/>
     </row>
     <row r="60" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="R60" s="37" t="s">
+      <c r="R60" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="S60" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="T60" s="49"/>
+      <c r="S60" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="T60" s="41"/>
     </row>
     <row r="61" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="R61" s="53" t="s">
+      <c r="R61" s="55" t="s">
         <v>216</v>
       </c>
-      <c r="S61" s="39" t="s">
+      <c r="S61" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="T61" s="49"/>
+      <c r="T61" s="41"/>
     </row>
     <row r="62" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="R62" s="37" t="s">
+      <c r="R62" s="30" t="s">
         <v>144</v>
       </c>
       <c r="S62" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="T62" s="40"/>
+      <c r="T62" s="32"/>
     </row>
     <row r="63" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="R63" s="37" t="s">
+      <c r="R63" s="30" t="s">
         <v>217</v>
       </c>
       <c r="S63" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="T63" s="40"/>
+      <c r="T63" s="32"/>
     </row>
     <row r="64" spans="6:20" x14ac:dyDescent="0.2">
       <c r="R64" s="10" t="s">
@@ -4680,25 +4682,25 @@
       <c r="S64" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="T64" s="40"/>
+      <c r="T64" s="32"/>
     </row>
     <row r="65" spans="18:20" x14ac:dyDescent="0.2">
-      <c r="R65" s="37" t="s">
+      <c r="R65" s="30" t="s">
         <v>122</v>
       </c>
       <c r="S65" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="T65" s="40"/>
+      <c r="T65" s="32"/>
     </row>
     <row r="66" spans="18:20" x14ac:dyDescent="0.2">
-      <c r="R66" s="37" t="s">
+      <c r="R66" s="30" t="s">
         <v>139</v>
       </c>
       <c r="S66" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="T66" s="40"/>
+      <c r="T66" s="32"/>
     </row>
     <row r="67" spans="18:20" x14ac:dyDescent="0.2">
       <c r="R67" s="4" t="s">
@@ -4707,7 +4709,7 @@
       <c r="S67" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="T67" s="40"/>
+      <c r="T67" s="32"/>
     </row>
     <row r="68" spans="18:20" x14ac:dyDescent="0.2">
       <c r="R68" s="4" t="s">
@@ -4716,7 +4718,7 @@
       <c r="S68" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="T68" s="40"/>
+      <c r="T68" s="32"/>
     </row>
     <row r="69" spans="18:20" x14ac:dyDescent="0.2">
       <c r="R69" s="4" t="s">
@@ -4725,7 +4727,7 @@
       <c r="S69" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="T69" s="40"/>
+      <c r="T69" s="32"/>
     </row>
     <row r="70" spans="18:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="R70" s="5" t="s">
@@ -4734,111 +4736,114 @@
       <c r="S70" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="T70" s="41"/>
+      <c r="T70" s="33"/>
     </row>
     <row r="73" spans="18:20" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="74" spans="18:20" x14ac:dyDescent="0.2">
-      <c r="R74" s="30" t="s">
+      <c r="R74" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="S74" s="31"/>
-      <c r="T74" s="32"/>
+      <c r="S74" s="48"/>
+      <c r="T74" s="49"/>
     </row>
     <row r="75" spans="18:20" x14ac:dyDescent="0.2">
-      <c r="R75" s="37" t="s">
+      <c r="R75" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="S75" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="T75" s="49"/>
+      <c r="S75" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="T75" s="41"/>
     </row>
     <row r="76" spans="18:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="R76" s="54" t="s">
+      <c r="R76" s="56" t="s">
         <v>213</v>
       </c>
       <c r="S76" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="T76" s="56"/>
+      <c r="T76" s="46"/>
     </row>
     <row r="77" spans="18:20" x14ac:dyDescent="0.2">
-      <c r="R77" s="42"/>
+      <c r="R77" s="34"/>
       <c r="S77" s="17"/>
-      <c r="T77" s="43"/>
+      <c r="T77" s="35"/>
     </row>
     <row r="78" spans="18:20" x14ac:dyDescent="0.2">
-      <c r="R78" s="42"/>
+      <c r="R78" s="34"/>
       <c r="S78" s="17"/>
-      <c r="T78" s="43"/>
+      <c r="T78" s="35"/>
     </row>
     <row r="79" spans="18:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="R79" s="55"/>
+      <c r="R79" s="45"/>
       <c r="S79" s="16"/>
-      <c r="T79" s="43"/>
+      <c r="T79" s="35"/>
     </row>
     <row r="80" spans="18:20" x14ac:dyDescent="0.2">
-      <c r="R80" s="30" t="s">
+      <c r="R80" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="S80" s="31"/>
-      <c r="T80" s="32"/>
+      <c r="S80" s="48"/>
+      <c r="T80" s="49"/>
     </row>
     <row r="81" spans="18:20" x14ac:dyDescent="0.2">
-      <c r="R81" s="37" t="s">
+      <c r="R81" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="S81" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="T81" s="49"/>
+      <c r="S81" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="T81" s="41"/>
     </row>
     <row r="82" spans="18:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="R82" s="54" t="s">
+      <c r="R82" s="56" t="s">
         <v>213</v>
       </c>
       <c r="S82" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="T82" s="56"/>
+      <c r="T82" s="46"/>
     </row>
     <row r="83" spans="18:20" x14ac:dyDescent="0.2">
       <c r="R83" s="15"/>
       <c r="S83" s="17"/>
-      <c r="T83" s="43"/>
+      <c r="T83" s="35"/>
     </row>
     <row r="84" spans="18:20" x14ac:dyDescent="0.2">
       <c r="R84" s="15"/>
       <c r="S84" s="17"/>
-      <c r="T84" s="43"/>
+      <c r="T84" s="35"/>
     </row>
     <row r="85" spans="18:20" x14ac:dyDescent="0.2">
       <c r="R85" s="15"/>
       <c r="S85" s="17"/>
-      <c r="T85" s="43"/>
+      <c r="T85" s="35"/>
     </row>
     <row r="86" spans="18:20" x14ac:dyDescent="0.2">
-      <c r="R86" s="43"/>
-      <c r="S86" s="43"/>
-      <c r="T86" s="43"/>
+      <c r="R86" s="17"/>
+      <c r="S86" s="17"/>
+      <c r="T86" s="35"/>
     </row>
     <row r="87" spans="18:20" x14ac:dyDescent="0.2">
-      <c r="R87" s="43"/>
-      <c r="S87" s="43"/>
-      <c r="T87" s="43"/>
+      <c r="R87" s="17"/>
+      <c r="S87" s="17"/>
+      <c r="T87" s="35"/>
     </row>
     <row r="88" spans="18:20" x14ac:dyDescent="0.2">
-      <c r="R88" s="43"/>
-      <c r="S88" s="43"/>
-      <c r="T88" s="43"/>
+      <c r="R88" s="17"/>
+      <c r="S88" s="17"/>
+      <c r="T88" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="R36:T36"/>
-    <mergeCell ref="R47:T47"/>
-    <mergeCell ref="R59:T59"/>
-    <mergeCell ref="R74:T74"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F31:H31"/>
     <mergeCell ref="R80:T80"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="J16:L16"/>
@@ -4846,14 +4851,11 @@
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="N7:P7"/>
     <mergeCell ref="N29:P29"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="R36:T36"/>
+    <mergeCell ref="R47:T47"/>
+    <mergeCell ref="R59:T59"/>
+    <mergeCell ref="R74:T74"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4878,11 +4880,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
@@ -4941,19 +4943,19 @@
       <c r="D7" s="9"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="9"/>
@@ -4996,11 +4998,11 @@
     </row>
     <row r="16" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="32"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="49"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
@@ -5023,10 +5025,10 @@
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="9" t="s">
